--- a/Assignment-1/Analysis.xlsx
+++ b/Assignment-1/Analysis.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Mesh Size(N by N)</t>
   </si>
@@ -33,6 +33,30 @@
   </si>
   <si>
     <t>Network Resistance(ohms)</t>
+  </si>
+  <si>
+    <t>SOR Parameter w</t>
+  </si>
+  <si>
+    <t>Number of Iterations</t>
+  </si>
+  <si>
+    <t>Potential/V</t>
+  </si>
+  <si>
+    <t>SOR Parameter x</t>
+  </si>
+  <si>
+    <t>Number of iterations</t>
+  </si>
+  <si>
+    <t>1/h</t>
+  </si>
+  <si>
+    <t>Number Of Iterations</t>
+  </si>
+  <si>
+    <t>Potential /V</t>
   </si>
 </sst>
 </file>
@@ -68,8 +92,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,11 +365,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347427352"/>
-        <c:axId val="347421080"/>
+        <c:axId val="312352888"/>
+        <c:axId val="312353672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347427352"/>
+        <c:axId val="312352888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2"/>
@@ -469,12 +497,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347421080"/>
+        <c:crossAx val="312353672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347421080"/>
+        <c:axId val="312353672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -596,7 +624,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347427352"/>
+        <c:crossAx val="312352888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5000"/>
@@ -914,11 +942,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="353144832"/>
-        <c:axId val="347428136"/>
+        <c:axId val="312354064"/>
+        <c:axId val="312354456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="353144832"/>
+        <c:axId val="312354064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2"/>
@@ -1032,12 +1060,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347428136"/>
+        <c:crossAx val="312354456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347428136"/>
+        <c:axId val="312354456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1150,7 +1178,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353144832"/>
+        <c:crossAx val="312354064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1162,6 +1190,1179 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of Iterations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>138</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="367625720"/>
+        <c:axId val="367620232"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="367625720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>SOR parameter w</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="367620232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="367620232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="367625720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Number of iterations vs 1/h</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$50:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>3200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$50:$C$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>737</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2566</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8693</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28452</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88547</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="432055248"/>
+        <c:axId val="432051720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="432055248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432051720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="432051720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432055248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Potential vs 1/h</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$50:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>3200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$50:$D$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>42.265309985679998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.081437110196802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.688810093759201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.543201770414299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.471121482722097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.374544700790103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.0600713636262</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="372123136"/>
+        <c:axId val="372118040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="372123136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="372118040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="372118040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="372123136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1279,6 +2480,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="243">
   <cs:axisTitle>
@@ -1796,6 +3117,1554 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2345,16 +5214,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>385762</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1595437</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2368,6 +5237,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1176337</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1166812</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2639,10 +5598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50:E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2650,9 +5609,15 @@
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2662,8 +5627,23 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2673,8 +5653,23 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>28</v>
+      </c>
+      <c r="G2">
+        <v>42.265338786228</v>
+      </c>
+      <c r="I2">
+        <v>1.2</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2684,8 +5679,23 @@
       <c r="C3">
         <v>1.5</v>
       </c>
+      <c r="E3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F3">
+        <v>21</v>
+      </c>
+      <c r="G3">
+        <v>42.265327935833596</v>
+      </c>
+      <c r="I3">
+        <v>1.21</v>
+      </c>
+      <c r="J3">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2695,8 +5705,23 @@
       <c r="C4">
         <v>1.8571428571428501</v>
       </c>
+      <c r="E4">
+        <v>1.2</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>42.265360165980198</v>
+      </c>
+      <c r="I4">
+        <v>1.22</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2706,8 +5731,23 @@
       <c r="C5">
         <v>2.13636363636363</v>
       </c>
+      <c r="E5">
+        <v>1.3</v>
+      </c>
+      <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>42.265394272763203</v>
+      </c>
+      <c r="I5">
+        <v>1.23</v>
+      </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -2717,8 +5757,23 @@
       <c r="C6">
         <v>2.3656565656565598</v>
       </c>
+      <c r="E6">
+        <v>1.4</v>
+      </c>
+      <c r="F6">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>42.265388121719397</v>
+      </c>
+      <c r="I6">
+        <v>1.24</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -2728,8 +5783,23 @@
       <c r="C7">
         <v>2.5601443464314402</v>
       </c>
+      <c r="E7">
+        <v>1.5</v>
+      </c>
+      <c r="F7">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>42.265373091829403</v>
+      </c>
+      <c r="I7">
+        <v>1.25</v>
+      </c>
+      <c r="J7">
+        <v>12</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -2739,8 +5809,23 @@
       <c r="C8">
         <v>2.7289767631698099</v>
       </c>
+      <c r="E8">
+        <v>1.6</v>
+      </c>
+      <c r="F8">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>42.265370965505902</v>
+      </c>
+      <c r="I8">
+        <v>1.26</v>
+      </c>
+      <c r="J8">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -2750,8 +5835,23 @@
       <c r="C9">
         <v>2.8781173737716399</v>
       </c>
+      <c r="E9">
+        <v>1.7</v>
+      </c>
+      <c r="F9">
+        <v>42</v>
+      </c>
+      <c r="G9">
+        <v>42.265386557783202</v>
+      </c>
+      <c r="I9">
+        <v>1.27</v>
+      </c>
+      <c r="J9">
+        <v>13</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -2761,8 +5861,23 @@
       <c r="C10">
         <v>3.0116695648965099</v>
       </c>
+      <c r="E10">
+        <v>1.8</v>
+      </c>
+      <c r="F10">
+        <v>67</v>
+      </c>
+      <c r="G10">
+        <v>42.265391580100498</v>
+      </c>
+      <c r="I10">
+        <v>1.28</v>
+      </c>
+      <c r="J10">
+        <v>13</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -2772,8 +5887,23 @@
       <c r="C11">
         <v>3.1325769805547798</v>
       </c>
+      <c r="E11">
+        <v>1.9</v>
+      </c>
+      <c r="F11">
+        <v>138</v>
+      </c>
+      <c r="G11">
+        <v>42.265374123704198</v>
+      </c>
+      <c r="I11">
+        <v>1.29</v>
+      </c>
+      <c r="J11">
+        <v>13</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -2784,7 +5914,7 @@
         <v>3.2430225844642999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -2795,7 +5925,7 @@
         <v>3.3446697258168099</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2806,7 +5936,7 @@
         <v>3.4388147716621198</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -2815,6 +5945,94 @@
       </c>
       <c r="C15">
         <v>3.5264875659703701</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>53</v>
+      </c>
+      <c r="D50">
+        <v>42.265309985679998</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>100</v>
+      </c>
+      <c r="C51">
+        <v>204</v>
+      </c>
+      <c r="D51">
+        <v>41.081437110196802</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>200</v>
+      </c>
+      <c r="C52">
+        <v>737</v>
+      </c>
+      <c r="D52">
+        <v>40.688810093759201</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>400</v>
+      </c>
+      <c r="C53">
+        <v>2566</v>
+      </c>
+      <c r="D53">
+        <v>40.543201770414299</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>800</v>
+      </c>
+      <c r="C54">
+        <v>8693</v>
+      </c>
+      <c r="D54">
+        <v>40.471121482722097</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="1">
+        <v>1600</v>
+      </c>
+      <c r="C55">
+        <v>28452</v>
+      </c>
+      <c r="D55">
+        <v>40.374544700790103</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="1">
+        <v>3200</v>
+      </c>
+      <c r="C56">
+        <v>88547</v>
+      </c>
+      <c r="D56">
+        <v>40.0600713636262</v>
       </c>
     </row>
   </sheetData>
